--- a/Data/aearep-1252/candidatepackages.xlsx
+++ b/Data/aearep-1252/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -25,24 +25,18 @@
     <t>winsor2</t>
   </si>
   <si>
-    <t>filelist</t>
-  </si>
-  <si>
     <t>reghdfe</t>
   </si>
   <si>
+    <t>ivreg2</t>
+  </si>
+  <si>
     <t>ftools</t>
   </si>
   <si>
-    <t>ivreg2</t>
-  </si>
-  <si>
     <t>unique</t>
   </si>
   <si>
-    <t>ranktest</t>
-  </si>
-  <si>
     <t>diff</t>
   </si>
   <si>
@@ -61,66 +55,51 @@
     <t>rd</t>
   </si>
   <si>
+    <t>network</t>
+  </si>
+  <si>
     <t>missing</t>
   </si>
   <si>
-    <t>network</t>
+    <t>title</t>
+  </si>
+  <si>
+    <t>norm</t>
   </si>
   <si>
     <t>project</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
     <t>cluster</t>
   </si>
   <si>
-    <t>norm</t>
-  </si>
-  <si>
     <t>split</t>
   </si>
   <si>
     <t>rev</t>
   </si>
   <si>
+    <t>dummies</t>
+  </si>
+  <si>
+    <t>median</t>
+  </si>
+  <si>
     <t>art</t>
   </si>
   <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>dummies</t>
-  </si>
-  <si>
-    <t>lars</t>
-  </si>
-  <si>
-    <t>median</t>
+    <t>pre</t>
   </si>
   <si>
     <t>cv</t>
   </si>
   <si>
-    <t>pre</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
     <t>adjust</t>
   </si>
   <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>zip</t>
-  </si>
-  <si>
     <t>Package popularity (rank out of total # of packages)</t>
   </si>
   <si>
@@ -133,24 +112,12 @@
     <t>dirname</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1252</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-1252/120550/programs</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1252/tools</t>
-  </si>
-  <si>
     <t>filename</t>
   </si>
   <si>
-    <t>PII_stata_scan.do</t>
-  </si>
-  <si>
-    <t>config.do</t>
-  </si>
-  <si>
     <t>AER_Appendix_tables_do.do</t>
   </si>
   <si>
@@ -206,9 +173,6 @@
   </si>
   <si>
     <t>spillins_do.do</t>
-  </si>
-  <si>
-    <t>convert_graphs.do</t>
   </si>
 </sst>
 </file>
@@ -252,7 +216,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D28"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -260,13 +224,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2">
@@ -274,7 +238,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -298,7 +262,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -310,7 +274,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -322,7 +286,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -334,7 +298,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -346,7 +310,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -358,7 +322,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -370,7 +334,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -382,7 +346,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -394,7 +358,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -406,7 +370,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -418,7 +382,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>81</v>
+        <v>284</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -430,7 +394,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>100</v>
+        <v>293</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -442,10 +406,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>267</v>
+        <v>499</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.16495867073535919</v>
       </c>
       <c r="D16"/>
     </row>
@@ -454,10 +418,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>279</v>
+        <v>539</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.17818181216716766</v>
       </c>
       <c r="D17"/>
     </row>
@@ -466,10 +430,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>503</v>
+        <v>547</v>
       </c>
       <c r="C18">
-        <v>0.16677719354629517</v>
+        <v>0.18082644045352936</v>
       </c>
       <c r="D18"/>
     </row>
@@ -478,10 +442,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C19">
-        <v>0.18733422458171844</v>
+        <v>0.18611569702625275</v>
       </c>
       <c r="D19"/>
     </row>
@@ -490,10 +454,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>566</v>
+        <v>632</v>
       </c>
       <c r="C20">
-        <v>0.18766577541828156</v>
+        <v>0.20892561972141266</v>
       </c>
       <c r="D20"/>
     </row>
@@ -502,10 +466,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>594</v>
+        <v>746</v>
       </c>
       <c r="C21">
-        <v>0.19694960117340088</v>
+        <v>0.24661156535148621</v>
       </c>
       <c r="D21"/>
     </row>
@@ -514,10 +478,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>606</v>
+        <v>875</v>
       </c>
       <c r="C22">
-        <v>0.20092837512493134</v>
+        <v>0.28925618529319763</v>
       </c>
       <c r="D22"/>
     </row>
@@ -526,10 +490,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>698</v>
+        <v>955</v>
       </c>
       <c r="C23">
-        <v>0.23143236339092255</v>
+        <v>0.31570246815681458</v>
       </c>
       <c r="D23"/>
     </row>
@@ -538,10 +502,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>942</v>
+        <v>1011</v>
       </c>
       <c r="C24">
-        <v>0.31233420968055725</v>
+        <v>0.33421486616134644</v>
       </c>
       <c r="D24"/>
     </row>
@@ -550,10 +514,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>985</v>
+        <v>1428</v>
       </c>
       <c r="C25">
-        <v>0.32659152150154114</v>
+        <v>0.47206610441207886</v>
       </c>
       <c r="D25"/>
     </row>
@@ -562,10 +526,10 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1077</v>
+        <v>1503</v>
       </c>
       <c r="C26">
-        <v>0.35709547996520996</v>
+        <v>0.49685949087142944</v>
       </c>
       <c r="D26"/>
     </row>
@@ -574,10 +538,10 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1124</v>
+        <v>1678</v>
       </c>
       <c r="C27">
-        <v>0.37267905473709106</v>
+        <v>0.5547107458114624</v>
       </c>
       <c r="D27"/>
     </row>
@@ -586,96 +550,12 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1133</v>
+        <v>1796</v>
       </c>
       <c r="C28">
-        <v>0.37566313147544861</v>
+        <v>0.5937190055847168</v>
       </c>
       <c r="D28"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>1424</v>
-      </c>
-      <c r="C29">
-        <v>0.47214853763580322</v>
-      </c>
-      <c r="D29"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>1553</v>
-      </c>
-      <c r="C30">
-        <v>0.51492041349411011</v>
-      </c>
-      <c r="D30"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>1621</v>
-      </c>
-      <c r="C31">
-        <v>0.53746682405471802</v>
-      </c>
-      <c r="D31"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>1793</v>
-      </c>
-      <c r="C32">
-        <v>0.59449601173400879</v>
-      </c>
-      <c r="D32"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>1798</v>
-      </c>
-      <c r="C33">
-        <v>0.5961538553237915</v>
-      </c>
-      <c r="D33"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>1817</v>
-      </c>
-      <c r="C34">
-        <v>0.60245358943939209</v>
-      </c>
-      <c r="D34"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>1859</v>
-      </c>
-      <c r="C35">
-        <v>0.61637932062149048</v>
-      </c>
-      <c r="D35"/>
     </row>
   </sheetData>
 </worksheet>
@@ -683,191 +563,167 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B20"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
         <v>40</v>
-      </c>
-      <c r="B8" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
